--- a/Rastreador GPS+Maps/bin/Release/rep/Modelo_reporte.xlsx
+++ b/Rastreador GPS+Maps/bin/Release/rep/Modelo_reporte.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="156" windowWidth="20052" windowHeight="7932"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -85,35 +85,14 @@
     <t>Fuente Sist. Energía</t>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2020 - AÑO DEL GENERAL MANUEL BELGRANO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
+    <t>2022 - Las Malvinas son argentinas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,13 +134,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,11 +214,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -254,6 +226,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -267,20 +244,26 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>120022</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>783076</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>111792</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="3 Imagen" descr="ENACOM_contexto_final.jpg"/>
+        <xdr:cNvPr id="3" name="2 Imagen"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -288,7 +271,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1238250" cy="853447"/>
+          <a:ext cx="2459476" cy="538512"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -375,6 +358,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -409,6 +393,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,60 +569,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" style="1" customWidth="1"/>
-    <col min="15" max="16" width="5.85546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="1"/>
+    <col min="12" max="12" width="10.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="5.88671875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.75">
-      <c r="P1" s="9" t="s">
+    <row r="1" spans="1:16" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="P1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.75">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" ht="12" thickBot="1"/>
-    <row r="9" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" s="2" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -687,7 +672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -701,7 +686,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -715,7 +700,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -729,7 +714,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -743,7 +728,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -757,7 +742,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -771,7 +756,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -785,7 +770,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -816,26 +801,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
